--- a/Model/BayesLSTM/Multivariate/result/Manufacturing/CHN.xlsx
+++ b/Model/BayesLSTM/Multivariate/result/Manufacturing/CHN.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>2012</v>
       </c>
       <c r="B2" t="n">
-        <v>30.9248046875</v>
+        <v>31.40956497192383</v>
       </c>
       <c r="C2" t="n">
-        <v>29.98980331420898</v>
+        <v>31.08846473693848</v>
       </c>
       <c r="D2" t="n">
-        <v>31.85980606079102</v>
+        <v>31.73066520690918</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>2013</v>
       </c>
       <c r="B3" t="n">
-        <v>31.12496948242188</v>
+        <v>30.89653015136719</v>
       </c>
       <c r="C3" t="n">
-        <v>29.71090888977051</v>
+        <v>30.35555076599121</v>
       </c>
       <c r="D3" t="n">
-        <v>32.53902816772461</v>
+        <v>31.43750953674316</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>2014</v>
       </c>
       <c r="B4" t="n">
-        <v>31.16724014282227</v>
+        <v>31.27022933959961</v>
       </c>
       <c r="C4" t="n">
-        <v>29.63536071777344</v>
+        <v>30.61725807189941</v>
       </c>
       <c r="D4" t="n">
-        <v>32.69911956787109</v>
+        <v>31.9232006072998</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>2015</v>
       </c>
       <c r="B5" t="n">
-        <v>30.94981002807617</v>
+        <v>31.21172523498535</v>
       </c>
       <c r="C5" t="n">
-        <v>29.99126434326172</v>
+        <v>30.6297664642334</v>
       </c>
       <c r="D5" t="n">
-        <v>31.90835571289062</v>
+        <v>31.7936840057373</v>
       </c>
     </row>
     <row r="6">
@@ -519,83 +519,13 @@
         <v>2016</v>
       </c>
       <c r="B6" t="n">
-        <v>30.44852256774902</v>
+        <v>31.15243911743164</v>
       </c>
       <c r="C6" t="n">
-        <v>29.34881401062012</v>
+        <v>30.57481002807617</v>
       </c>
       <c r="D6" t="n">
-        <v>31.54823112487793</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B7" t="n">
-        <v>30.8940544128418</v>
-      </c>
-      <c r="C7" t="n">
-        <v>28.96538352966309</v>
-      </c>
-      <c r="D7" t="n">
-        <v>32.82272720336914</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B8" t="n">
-        <v>31.21663856506348</v>
-      </c>
-      <c r="C8" t="n">
-        <v>30.17235946655273</v>
-      </c>
-      <c r="D8" t="n">
-        <v>32.26091766357422</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B9" t="n">
-        <v>30.99249267578125</v>
-      </c>
-      <c r="C9" t="n">
-        <v>29.5160026550293</v>
-      </c>
-      <c r="D9" t="n">
-        <v>32.4689826965332</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B10" t="n">
-        <v>31.04875564575195</v>
-      </c>
-      <c r="C10" t="n">
-        <v>29.98359489440918</v>
-      </c>
-      <c r="D10" t="n">
-        <v>32.11391448974609</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B11" t="n">
-        <v>30.74072647094727</v>
-      </c>
-      <c r="C11" t="n">
-        <v>29.21736335754395</v>
-      </c>
-      <c r="D11" t="n">
-        <v>32.26409149169922</v>
+        <v>31.73006820678711</v>
       </c>
     </row>
   </sheetData>
@@ -641,72 +571,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>32.18010005950928</v>
+        <v>31.05755233764648</v>
       </c>
       <c r="C2" t="n">
-        <v>30.8223988600345</v>
+        <v>30.73499488830566</v>
       </c>
       <c r="D2" t="n">
-        <v>33.53780125898406</v>
+        <v>31.3801097869873</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>31.36150074005127</v>
+        <v>31.16924095153809</v>
       </c>
       <c r="C3" t="n">
-        <v>29.9274999260255</v>
+        <v>30.58858680725098</v>
       </c>
       <c r="D3" t="n">
-        <v>32.79550155407703</v>
+        <v>31.7498950958252</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>29.99288883209228</v>
+        <v>31.17410278320312</v>
       </c>
       <c r="C4" t="n">
-        <v>29.05341882084227</v>
+        <v>30.65419387817383</v>
       </c>
       <c r="D4" t="n">
-        <v>30.9323588433423</v>
+        <v>31.69401168823242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>31.79988822937012</v>
+        <v>31.12571144104004</v>
       </c>
       <c r="C5" t="n">
-        <v>30.53572654962171</v>
+        <v>30.6780948638916</v>
       </c>
       <c r="D5" t="n">
-        <v>33.06404990911852</v>
+        <v>31.57332801818848</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>31.1689582824707</v>
+        <v>31.16702270507812</v>
       </c>
       <c r="C6" t="n">
-        <v>29.7925843174246</v>
+        <v>30.75396347045898</v>
       </c>
       <c r="D6" t="n">
-        <v>32.54533224751681</v>
+        <v>31.58008193969727</v>
       </c>
     </row>
   </sheetData>
@@ -755,13 +685,13 @@
         <v>2012</v>
       </c>
       <c r="B2" t="n">
-        <v>31.26830101013184</v>
+        <v>31.46207237243652</v>
       </c>
       <c r="C2" t="n">
-        <v>30.12569999694824</v>
+        <v>31.21951675415039</v>
       </c>
       <c r="D2" t="n">
-        <v>32.4109001159668</v>
+        <v>31.70462799072266</v>
       </c>
     </row>
     <row r="3">
@@ -769,13 +699,13 @@
         <v>2013</v>
       </c>
       <c r="B3" t="n">
-        <v>31.49699783325195</v>
+        <v>30.92560958862305</v>
       </c>
       <c r="C3" t="n">
-        <v>30.09676933288574</v>
+        <v>30.41734886169434</v>
       </c>
       <c r="D3" t="n">
-        <v>32.89722442626953</v>
+        <v>31.43387031555176</v>
       </c>
     </row>
     <row r="4">
@@ -783,13 +713,13 @@
         <v>2014</v>
       </c>
       <c r="B4" t="n">
-        <v>31.68373680114746</v>
+        <v>31.15803909301758</v>
       </c>
       <c r="C4" t="n">
-        <v>30.07199287414551</v>
+        <v>30.58753776550293</v>
       </c>
       <c r="D4" t="n">
-        <v>33.29548263549805</v>
+        <v>31.72854042053223</v>
       </c>
     </row>
     <row r="5">
@@ -797,13 +727,13 @@
         <v>2015</v>
       </c>
       <c r="B5" t="n">
-        <v>31.69128799438477</v>
+        <v>31.22775840759277</v>
       </c>
       <c r="C5" t="n">
-        <v>30.37200736999512</v>
+        <v>30.89117431640625</v>
       </c>
       <c r="D5" t="n">
-        <v>33.01056671142578</v>
+        <v>31.5643424987793</v>
       </c>
     </row>
     <row r="6">
@@ -811,13 +741,13 @@
         <v>2016</v>
       </c>
       <c r="B6" t="n">
-        <v>31.36391830444336</v>
+        <v>30.97974014282227</v>
       </c>
       <c r="C6" t="n">
-        <v>29.69491386413574</v>
+        <v>30.33819198608398</v>
       </c>
       <c r="D6" t="n">
-        <v>33.03292465209961</v>
+        <v>31.62128829956055</v>
       </c>
     </row>
     <row r="7">
@@ -825,13 +755,13 @@
         <v>2017</v>
       </c>
       <c r="B7" t="n">
-        <v>31.84178733825684</v>
+        <v>30.95110702514648</v>
       </c>
       <c r="C7" t="n">
-        <v>30.68165016174316</v>
+        <v>30.5463924407959</v>
       </c>
       <c r="D7" t="n">
-        <v>33.00192642211914</v>
+        <v>31.35582160949707</v>
       </c>
     </row>
     <row r="8">
@@ -839,13 +769,13 @@
         <v>2018</v>
       </c>
       <c r="B8" t="n">
-        <v>32.05058670043945</v>
+        <v>30.99189376831055</v>
       </c>
       <c r="C8" t="n">
-        <v>30.35898780822754</v>
+        <v>30.52861022949219</v>
       </c>
       <c r="D8" t="n">
-        <v>33.74218368530273</v>
+        <v>31.45517730712891</v>
       </c>
     </row>
     <row r="9">
@@ -853,13 +783,13 @@
         <v>2019</v>
       </c>
       <c r="B9" t="n">
-        <v>31.96551513671875</v>
+        <v>30.96320724487305</v>
       </c>
       <c r="C9" t="n">
-        <v>29.95616722106934</v>
+        <v>30.48416709899902</v>
       </c>
       <c r="D9" t="n">
-        <v>33.9748649597168</v>
+        <v>31.44224739074707</v>
       </c>
     </row>
     <row r="10">
@@ -867,13 +797,13 @@
         <v>2020</v>
       </c>
       <c r="B10" t="n">
-        <v>32.40986251831055</v>
+        <v>30.89838027954102</v>
       </c>
       <c r="C10" t="n">
-        <v>29.6904125213623</v>
+        <v>30.50171852111816</v>
       </c>
       <c r="D10" t="n">
-        <v>35.12931442260742</v>
+        <v>31.29504203796387</v>
       </c>
     </row>
     <row r="11">
@@ -881,13 +811,13 @@
         <v>2021</v>
       </c>
       <c r="B11" t="n">
-        <v>32.23191452026367</v>
+        <v>30.80189895629883</v>
       </c>
       <c r="C11" t="n">
-        <v>30.0238094329834</v>
+        <v>30.37735748291016</v>
       </c>
       <c r="D11" t="n">
-        <v>34.44001770019531</v>
+        <v>31.2264404296875</v>
       </c>
     </row>
   </sheetData>
@@ -936,13 +866,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>31.74676036834717</v>
+        <v>31.92121906280518</v>
       </c>
       <c r="C2" t="n">
-        <v>30.99375360348159</v>
+        <v>31.60026941517662</v>
       </c>
       <c r="D2" t="n">
-        <v>32.49976713321275</v>
+        <v>32.24216871043373</v>
       </c>
     </row>
     <row r="3">
@@ -950,13 +880,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>32.03201179504394</v>
+        <v>31.54841060638428</v>
       </c>
       <c r="C3" t="n">
-        <v>30.70520642108416</v>
+        <v>31.10268871303671</v>
       </c>
       <c r="D3" t="n">
-        <v>33.35881716900372</v>
+        <v>31.99413249973184</v>
       </c>
     </row>
     <row r="4">
@@ -964,13 +894,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>31.00950984954834</v>
+        <v>31.55007038116455</v>
       </c>
       <c r="C4" t="n">
-        <v>29.8689715040945</v>
+        <v>30.59552964351748</v>
       </c>
       <c r="D4" t="n">
-        <v>32.15004819500219</v>
+        <v>32.50461111881162</v>
       </c>
     </row>
     <row r="5">
@@ -978,13 +908,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>31.33325862884521</v>
+        <v>31.9512451171875</v>
       </c>
       <c r="C5" t="n">
-        <v>28.5740441219864</v>
+        <v>31.24505711849994</v>
       </c>
       <c r="D5" t="n">
-        <v>34.09247313570403</v>
+        <v>32.65743311587506</v>
       </c>
     </row>
     <row r="6">
@@ -992,13 +922,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>31.70429019927979</v>
+        <v>31.49827995300293</v>
       </c>
       <c r="C6" t="n">
-        <v>30.07676969096399</v>
+        <v>31.06990071123204</v>
       </c>
       <c r="D6" t="n">
-        <v>33.33181070759559</v>
+        <v>31.92665919477382</v>
       </c>
     </row>
   </sheetData>
